--- a/This goes to documents and settings/PsiNorm/Results/excel/PsiNorm.xlsx
+++ b/This goes to documents and settings/PsiNorm/Results/excel/PsiNorm.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="423">
   <si>
     <t>Hasta Kodu</t>
   </si>
@@ -1392,6 +1392,12 @@
   </si>
   <si>
     <t>Kendiliğinden geciktirilmiş hatırlama</t>
+  </si>
+  <si>
+    <t>İleri puan</t>
+  </si>
+  <si>
+    <t>Geri puan</t>
   </si>
 </sst>
 </file>
@@ -1730,9 +1736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3429,13 +3433,15 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3461,9 +3467,15 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J1" t="s">
         <v>104</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>422</v>
+      </c>
+      <c r="L1" t="s">
         <v>105</v>
       </c>
     </row>
